--- a/CoParticipacaoWebService/src/test/resources/haoc/input/0444.NAO-LOCALIZADO.201810.005.xlsx
+++ b/CoParticipacaoWebService/src/test/resources/haoc/input/0444.NAO-LOCALIZADO.201810.005.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">COD-TITULAR</t>
   </si>
@@ -40,23 +40,350 @@
     <t xml:space="preserve">NOME BENEFICIÁRIO</t>
   </si>
   <si>
+    <t xml:space="preserve">APELIDO 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APELIDO 02</t>
+  </si>
+  <si>
     <t xml:space="preserve">DT NASCIMENTO</t>
   </si>
   <si>
     <t xml:space="preserve">DT ADMISSAO</t>
   </si>
   <si>
+    <t xml:space="preserve">DT DEMISSAO</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALOR PRINCIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34104167819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANA DOS SANTOS CAIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35309773819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALESSANDRA DOS SANTOS A CAROLINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34010877898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALESSANDRA SILVEIRA M  MACCHIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30005778824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALINE GOMES SOUZA CAVALCANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03740181893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMADEU CAMPOS DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44817873841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANDA SALUSTIANO DOS REIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41775230899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA LAURA OLIVEIRA GUEDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46455134869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA LUIZA GOMES CAVALCANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06182467541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANATALIA CAMPOS RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31854170899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDERSON MENDES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05292316466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGELA DIAS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53723688888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTHUR SANTOS TEOTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43373355877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARBARA DA SILVA NATALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERNARDO MARQUES SALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14332504895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRENDA LIA DE LIMA LEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22370995882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILA SALERNO CARVALHO NICKEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30925331864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILA TERRA BARSANTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54205956568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS AUGUSTO SILVA LUZ SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06929769819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIO FERREIRA DE ARAUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32365577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISTIANE BENEDITA RAIMUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29069729830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBORA GITAHY REIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22897716860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUGLAS FELIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88979393253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDINALVA FREITAS C DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16617520807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIO EDUARDO RISSATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37890478801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIULA GONCALVES SALOMAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELIPE SALERNO CARVALHO NICKEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDA ALVES SAMPAIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL RODRIGUES MARTINS SANCHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILHERME ALVES SAMPAIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO GUILHERME NUNES OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELLENA DE OLIVEIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29089616870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDAIANA ARRUDA DE FREITAS SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISAAC JACOMO CORREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03654997309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEFFERSON DE CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43013161833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JENIFFER BISPO DE MATOS LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24652029870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KATIA KOGA MENDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39024988896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELVYS EUDORO MACHADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAURA DE OLIVEIRA SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33531673823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILIANE SILVA PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54744153895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCAS PEREIRA HOLANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90960793020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANA VIEIRA MARTINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00460772007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIGI MARTINS SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15155303885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA VERONICA ALVES SAMPAIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATHEUS DE SOUZA LOBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35141528880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYARA C O FIGUEIREDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34795514836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELANIE JOSECLEIA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49427310898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL CONCEICAO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35768151800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONIQUE DUARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MURILO MOTTA DE CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43141947821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALOMA ROSA TEIXEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22217524810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA BAPTISTA DE S BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33033891870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA VIANA MENDES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33320154869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULA MOTTA RAMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAELLA DOS SANTOS LOBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40872837807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGERIO SILVA FARIAS JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL SENA MENDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73474711415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERGIO CAVALCANTE BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32328483895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELMA RODRIGUES DOS REIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46531325852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WESLLEY SOARES DE OLIVEIRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,8 +413,14 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +431,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,13 +474,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,6 +516,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -161,18 +584,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="27.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="54.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="27.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="54.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -202,6 +626,1726 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>13054</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44400013054001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>31742</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>58.62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>12029</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44400012029001</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>30902</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>11017</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44400011017101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>31811</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>42309</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>13163</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44400013163001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>30575</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>226.88</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>6760</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44400006760001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>22630</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>51.53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>11802</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44400011802001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>35074</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>11843</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44400011843001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>34164</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>13163</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44400013163010</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>39923</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>6760</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44400006760003</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>32501</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>13540</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44400013540001</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>30782</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>11683</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44400011683001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>28813</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>13434</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44400013434010</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>43042</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>13554</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44400013554001</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>35047</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>12187</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44400012187010</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>98758629084</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>42002</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44400011176002</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>26924</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>42309</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>13033</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44400013033001</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>30153</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>8938</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44400008938001</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>29984</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>11339</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44400011339002</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>25149</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>13012</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44400013012001</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>23999</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>45.06</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>12964</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44400012964001</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>30853</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>8105</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44400008105001</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>29138</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>10436</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44400010436001</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>32435</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>8850</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44400008850002</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>31972</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>8404</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44400008404001</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>27286</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>13111</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44400013111001</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>32828</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>13033</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44400013033010</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>34820343033</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>41540</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>18.01</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>7589</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44400007589011</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>97946403011</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>38081</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>42309</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>12634</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44400012634010</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>82601050047</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>38768</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>7589</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44400007589010</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>95865524038</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>37638</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>42309</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>9085</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44400009085010</v>
+      </c>
+      <c r="C31" s="7" t="n">
+        <v>33923292074</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>37632</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>11056</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44400011056011</v>
+      </c>
+      <c r="C32" s="7" t="n">
+        <v>43871205095</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>42452</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <v>176.01</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>13069</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44400013069001</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>29466</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>12679</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44400012679011</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>28562674087</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>42105</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L34" s="6" t="n">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>11656</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44400011656001</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>33010</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>12808</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44400012808001</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>33825</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L36" s="6" t="n">
+        <v>31.78</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>10157</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44400010157001</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>27946</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>12283</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44400012283001</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>33218</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L38" s="6" t="n">
+        <v>129.58</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>11056</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44400011056010</v>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>46127338000</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>36946</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L39" s="6" t="n">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>12399</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44400012399001</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>30676</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L40" s="6" t="n">
+        <v>32.67</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>12399</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44400012399010</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>43188</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L41" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>10715</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44400010715001</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>29037</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L42" s="6" t="n">
+        <v>53.85</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>10715</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44400010715010</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>36678</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L43" s="6" t="n">
+        <v>77.36</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>7589</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44400007589002</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>26435</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <v>42309</v>
+      </c>
+      <c r="L44" s="6" t="n">
+        <v>113.44</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>8244</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44400008244010</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>21921697016</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>40043</v>
+      </c>
+      <c r="K45" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L45" s="6" t="n">
+        <v>42.38</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>13151</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44400013151001</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>33221</v>
+      </c>
+      <c r="K46" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L46" s="6" t="n">
+        <v>79.79</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>13439</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44400013439001</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>31579</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L47" s="6" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>13439</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44400013439010</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>41169</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L48" s="6" t="n">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>12866</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44400012866001</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>32030</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L49" s="6" t="n">
+        <v>45.18</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>11656</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44400011656010</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>8947376000</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>41562</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L50" s="6" t="n">
+        <v>84.46</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>10775</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44400010775011</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>35685</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <v>42309</v>
+      </c>
+      <c r="L51" s="6" t="n">
+        <v>101.93</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>10316</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44400010316001</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>29649</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L52" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>13540</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44400013540002</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>31468</v>
+      </c>
+      <c r="K53" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L53" s="6" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>11656</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44400011656002</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>31339</v>
+      </c>
+      <c r="K54" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L54" s="6" t="n">
+        <v>99.37</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>8244</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44400008244011</v>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>68044707026</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>40985</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L55" s="6" t="n">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>13109</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44400013109010</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>34352</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <v>42842</v>
+      </c>
+      <c r="L56" s="6" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>13251</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44400013251010</v>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>62623504032</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="5" t="n">
+        <v>41605</v>
+      </c>
+      <c r="K57" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L57" s="6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>10583</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44400010583001</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>26539</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L58" s="6" t="n">
+        <v>132.74</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>11054</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44400011054002</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" s="5" t="n">
+        <v>30651</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L59" s="6" t="n">
+        <v>61.32</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>13591</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44400013591001</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>35346</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="L60" s="6" t="n">
+        <v>15.86</v>
       </c>
     </row>
   </sheetData>
